--- a/data/9101852.xlsx
+++ b/data/9101852.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leekennedy\Desktop\TAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leekennedy\Dropbox\Useful Daily Scripts\TAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25845" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="9101852" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>ORIGINAL_SAMPLE</t>
   </si>
@@ -36,7 +36,7 @@
     <t>DATE_STARTED</t>
   </si>
   <si>
-    <t>DATE_COMPLETED</t>
+    <t>RELEASED_ON</t>
   </si>
   <si>
     <t>DATE_REVIEWED</t>
@@ -48,6 +48,9 @@
     <t>LAB</t>
   </si>
   <si>
+    <t>REPLICATE_COUNT</t>
+  </si>
+  <si>
     <t>APCO010195</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
     <t>Iodine by ICP-MS (m/m)</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>IODI010493</t>
   </si>
   <si>
@@ -168,6 +174,9 @@
     <t>pH</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PROT010201</t>
   </si>
   <si>
@@ -178,6 +187,12 @@
   </si>
   <si>
     <t>Peroxide Value -  Food &amp; Dairy Products</t>
+  </si>
+  <si>
+    <t>QC_DUP_CHK</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>SALT010493</t>
@@ -1045,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,16 +1086,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1091,28 +1106,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>42642.485486111109</v>
       </c>
       <c r="F2" s="1">
-        <v>42642.485486111109</v>
+        <v>42642.519942129627</v>
       </c>
       <c r="G2" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H2" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1123,28 +1138,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>42642.463645833333</v>
       </c>
       <c r="F3" s="1">
-        <v>42642.463645833333</v>
+        <v>42642.471342592595</v>
       </c>
       <c r="G3" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H3" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1155,28 +1170,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>42642.355775462966</v>
       </c>
       <c r="F4" s="1">
-        <v>42642.379236111112</v>
+        <v>42642.502187500002</v>
       </c>
       <c r="G4" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H4" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1187,28 +1202,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>42641.397314814814</v>
       </c>
       <c r="F5" s="1">
-        <v>42642.484178240738</v>
+        <v>42642.504062499997</v>
       </c>
       <c r="G5" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H5" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1219,28 +1234,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>42642.343773148146</v>
       </c>
       <c r="F6" s="1">
-        <v>42642.659571759257</v>
+        <v>42642.685949074075</v>
       </c>
       <c r="G6" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H6" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1251,28 +1266,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>42646.454305555555</v>
       </c>
       <c r="F7" s="1">
-        <v>42646.454305555555</v>
+        <v>42646.465138888889</v>
       </c>
       <c r="G7" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H7" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1283,28 +1298,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>42646.381111111114</v>
       </c>
       <c r="F8" s="1">
-        <v>42646.381111111114</v>
+        <v>42646.84165509259</v>
       </c>
       <c r="G8" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H8" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1315,28 +1330,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>42641.674201388887</v>
       </c>
       <c r="F9" s="1">
-        <v>42641.675659722219</v>
+        <v>42645.570937500001</v>
       </c>
       <c r="G9" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H9" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1347,28 +1362,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>42642.485486111109</v>
       </c>
       <c r="F10" s="1">
-        <v>42642.485486111109</v>
+        <v>42642.520185185182</v>
       </c>
       <c r="G10" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H10" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1379,28 +1394,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1">
         <v>42641.537407407406</v>
       </c>
       <c r="F11" s="1">
-        <v>42641.747291666667</v>
+        <v>42642.981458333335</v>
       </c>
       <c r="G11" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H11" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1411,28 +1426,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1">
         <v>42644.674687500003</v>
       </c>
       <c r="F12" s="1">
-        <v>42644.674687500003</v>
+        <v>42645.590069444443</v>
       </c>
       <c r="G12" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H12" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1443,28 +1458,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1">
-        <v>42647.482986111114</v>
+        <v>42641.581273148149</v>
       </c>
       <c r="F13" s="1">
-        <v>42650.652511574073</v>
+        <v>42645.390949074077</v>
       </c>
       <c r="G13" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H13" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1475,28 +1490,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="1">
-        <v>42650.735462962963</v>
+        <v>42647.482986111114</v>
       </c>
       <c r="F14" s="1">
-        <v>42650.735462962963</v>
+        <v>42650.749143518522</v>
       </c>
       <c r="G14" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H14" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1507,28 +1522,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>42644.29791666667</v>
+        <v>42647.482986111114</v>
       </c>
       <c r="F15" s="1">
-        <v>42644.542453703703</v>
+        <v>42650.777361111112</v>
       </c>
       <c r="G15" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H15" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1539,28 +1554,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1">
-        <v>42641.575868055559</v>
+        <v>42650.735462962963</v>
       </c>
       <c r="F16" s="1">
-        <v>42641.575868055559</v>
+        <v>42650.787835648145</v>
       </c>
       <c r="G16" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H16" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1571,28 +1586,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
-        <v>42642.817835648151</v>
+        <v>42644.29791666667</v>
       </c>
       <c r="F17" s="1">
-        <v>42642.842210648145</v>
+        <v>42645.54346064815</v>
       </c>
       <c r="G17" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H17" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,28 +1618,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1">
-        <v>42642.683171296296</v>
+        <v>42641.575868055559</v>
       </c>
       <c r="F18" s="1">
-        <v>42642.683171296296</v>
+        <v>42641.809618055559</v>
       </c>
       <c r="G18" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H18" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1635,28 +1650,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1">
-        <v>42641.620937500003</v>
+        <v>42642.817835648151</v>
       </c>
       <c r="F19" s="1">
-        <v>42646.637060185189</v>
+        <v>42642.881793981483</v>
       </c>
       <c r="G19" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H19" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1667,28 +1682,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1">
-        <v>42642.562326388892</v>
+        <v>42642.683171296296</v>
       </c>
       <c r="F20" s="1">
-        <v>42642.564363425925</v>
+        <v>42644.495787037034</v>
       </c>
       <c r="G20" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H20" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1699,28 +1714,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1">
-        <v>42642.71429398148</v>
+        <v>42641.620937500003</v>
       </c>
       <c r="F21" s="1">
-        <v>42643.49491898148</v>
+        <v>42646.737557870372</v>
       </c>
       <c r="G21" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H21" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1731,28 +1746,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
-        <v>42642.478055555555</v>
+        <v>42642.562326388892</v>
       </c>
       <c r="F22" s="1">
-        <v>42642.639641203707</v>
+        <v>42642.581400462965</v>
       </c>
       <c r="G22" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H22" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1760,31 +1775,22 @@
         <v>9101852</v>
       </c>
       <c r="B23" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.367025462961</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1">
-        <v>42641.566261574073</v>
-      </c>
-      <c r="F23" s="1">
-        <v>42641.798206018517</v>
-      </c>
-      <c r="G23" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H23" s="1">
-        <v>42650.834930555553</v>
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1792,31 +1798,28 @@
         <v>9101852</v>
       </c>
       <c r="B24" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.529791666668</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
-        <v>42642.561643518522</v>
+        <v>42644.674722222226</v>
       </c>
       <c r="F24" s="1">
-        <v>42642.561643518522</v>
-      </c>
-      <c r="G24" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H24" s="1">
-        <v>42650.834930555553</v>
+        <v>42645.590138888889</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1824,31 +1827,22 @@
         <v>9101852</v>
       </c>
       <c r="B25" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.367025462961</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1">
-        <v>42641.604675925926</v>
-      </c>
-      <c r="F25" s="1">
-        <v>42642.839768518519</v>
-      </c>
-      <c r="G25" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H25" s="1">
-        <v>42650.834930555553</v>
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1856,31 +1850,28 @@
         <v>9101852</v>
       </c>
       <c r="B26" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.529791666668</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1">
-        <v>42642.276967592596</v>
+        <v>42641.575868055559</v>
       </c>
       <c r="F26" s="1">
-        <v>42644.518449074072</v>
-      </c>
-      <c r="G26" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H26" s="1">
-        <v>42650.834930555553</v>
+        <v>42641.80978009259</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1888,31 +1879,22 @@
         <v>9101852</v>
       </c>
       <c r="B27" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.367025462961</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="1">
-        <v>42643.378865740742</v>
-      </c>
-      <c r="F27" s="1">
-        <v>42643.378865740742</v>
-      </c>
-      <c r="G27" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H27" s="1">
-        <v>42650.834930555553</v>
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1920,31 +1902,28 @@
         <v>9101852</v>
       </c>
       <c r="B28" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.529791666668</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1">
-        <v>42643.378865740742</v>
+        <v>42642.817870370367</v>
       </c>
       <c r="F28" s="1">
-        <v>42643.378865740742</v>
-      </c>
-      <c r="G28" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H28" s="1">
-        <v>42650.834930555553</v>
+        <v>42642.881979166668</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1955,28 +1934,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1">
-        <v>42642.417233796295</v>
+        <v>42642.71429398148</v>
       </c>
       <c r="F29" s="1">
-        <v>42644.644224537034</v>
+        <v>42643.623263888891</v>
       </c>
       <c r="G29" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H29" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,28 +1966,28 @@
         <v>42640.482847222222</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1">
-        <v>42642.527048611111</v>
+        <v>42642.478055555555</v>
       </c>
       <c r="F30" s="1">
-        <v>42642.653703703705</v>
+        <v>42642.867280092592</v>
       </c>
       <c r="G30" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H30" s="1">
-        <v>42650.834930555553</v>
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2016,31 +1995,19 @@
         <v>9101852</v>
       </c>
       <c r="B31" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.367025462961</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1">
-        <v>42645.396273148152</v>
-      </c>
-      <c r="F31" s="1">
-        <v>42645.396273148152</v>
-      </c>
-      <c r="G31" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H31" s="1">
-        <v>42650.834930555553</v>
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2048,31 +2015,19 @@
         <v>9101852</v>
       </c>
       <c r="B32" s="1">
-        <v>42640.482847222222</v>
+        <v>42641.529791666668</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="1">
-        <v>42643.384085648147</v>
-      </c>
-      <c r="F32" s="1">
-        <v>42643.384085648147</v>
-      </c>
-      <c r="G32" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H32" s="1">
-        <v>42650.834930555553</v>
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2080,31 +2035,400 @@
         <v>9101852</v>
       </c>
       <c r="B33" s="1">
-        <v>42640.482847222222</v>
+        <v>42642.32298611111</v>
       </c>
       <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9101852</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42641.566261574073</v>
+      </c>
+      <c r="F34" s="1">
+        <v>42641.839918981481</v>
+      </c>
+      <c r="G34" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9101852</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42642.561643518522</v>
+      </c>
+      <c r="F35" s="1">
+        <v>42642.580833333333</v>
+      </c>
+      <c r="G35" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9101852</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="1">
+        <v>42641.604675925926</v>
+      </c>
+      <c r="F36" s="1">
+        <v>42642.855474537035</v>
+      </c>
+      <c r="G36" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9101852</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="1">
+        <v>42642.276967592596</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42644.595983796295</v>
+      </c>
+      <c r="G37" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9101852</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="1">
+        <v>42643.378865740742</v>
+      </c>
+      <c r="F38" s="1">
+        <v>42644.612592592595</v>
+      </c>
+      <c r="G38" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9101852</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42643.378865740742</v>
+      </c>
+      <c r="F39" s="1">
+        <v>42644.612604166665</v>
+      </c>
+      <c r="G39" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9101852</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42642.417233796295</v>
+      </c>
+      <c r="F40" s="1">
+        <v>42644.679849537039</v>
+      </c>
+      <c r="G40" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9101852</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E41" s="1">
+        <v>42642.527048611111</v>
+      </c>
+      <c r="F41" s="1">
+        <v>42642.66034722222</v>
+      </c>
+      <c r="G41" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9101852</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C42" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="1">
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42645.396273148152</v>
+      </c>
+      <c r="F42" s="1">
+        <v>42645.626956018517</v>
+      </c>
+      <c r="G42" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9101852</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42643.384085648147</v>
+      </c>
+      <c r="F43" s="1">
+        <v>42644.613726851851</v>
+      </c>
+      <c r="G43" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9101852</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42640.482847222222</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1">
         <v>42642.444675925923</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F44" s="1">
+        <v>42642.500775462962</v>
+      </c>
+      <c r="G44" s="1">
+        <v>42650.834930555553</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9101852</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42642.32298611111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="1">
         <v>42642.444675925923</v>
       </c>
-      <c r="G33" s="1">
-        <v>42650.735462962963</v>
-      </c>
-      <c r="H33" s="1">
-        <v>42650.834930555553</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" t="s">
-        <v>12</v>
+      <c r="F45" s="1">
+        <v>42642.500810185185</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
